--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_consistent.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_consistent.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">y</t>
   </si>
@@ -26,7 +26,13 @@
     <t xml:space="preserve">CI_high</t>
   </si>
   <si>
+    <t xml:space="preserve">along</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">millionaire_tax_in_programTRUE</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -401,159 +407,195 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.063684932886715</v>
+        <v>0.0530353449223402</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0338029180106138</v>
+        <v>0.0318863484974417</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0935669477628162</v>
+        <v>0.0741843413472386</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0707306333652946</v>
+        <v>0.0575653552523803</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0303092063556742</v>
+        <v>0.0288289010822673</v>
       </c>
       <c r="D3" t="n">
-        <v>0.111152060374915</v>
+        <v>0.0863018094224933</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0330563906011982</v>
+        <v>0.0207598905329339</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0589600869560866</v>
+        <v>-0.0461181960169477</v>
       </c>
       <c r="D4" t="n">
-        <v>0.125072868158483</v>
+        <v>0.0876379770828154</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.106209235628388</v>
+        <v>0.0917338915877852</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0196558795554028</v>
+        <v>0.0297806852548246</v>
       </c>
       <c r="D5" t="n">
-        <v>0.192762591701373</v>
+        <v>0.153687097920746</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0756831944336379</v>
+        <v>0.0838719260554862</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0320536113348481</v>
+        <v>0.00843318620479254</v>
       </c>
       <c r="D6" t="n">
-        <v>0.183420000202124</v>
+        <v>0.15931066590618</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.045896899712109</v>
+        <v>0.0457141051312941</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0715540365628375</v>
+        <v>-0.036854115169991</v>
       </c>
       <c r="D7" t="n">
-        <v>0.163347835987056</v>
+        <v>0.128282325432579</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.108911428342742</v>
+        <v>0.0769389816500663</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.00406753744533946</v>
+        <v>-0.00563473232866801</v>
       </c>
       <c r="D8" t="n">
-        <v>0.221890394130824</v>
+        <v>0.159512695628801</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0496967647074558</v>
+        <v>0.0309700140945141</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0477728803199034</v>
+        <v>-0.0370518756345722</v>
       </c>
       <c r="D9" t="n">
-        <v>0.147166409734815</v>
+        <v>0.0989919038236003</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.112270385999125</v>
+        <v>-0.00623267936164852</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0561695324225328</v>
+        <v>-0.115979653813394</v>
       </c>
       <c r="D10" t="n">
-        <v>0.280710304420783</v>
+        <v>0.103514295090097</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0424052040522827</v>
+        <v>0.0342572971648338</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.00713608997900241</v>
+        <v>-0.000790727879418231</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0919464980835678</v>
+        <v>0.0693053222090859</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0774339780336404</v>
+        <v>0.0732093090780292</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0076473450418473</v>
+        <v>0.0142207044090649</v>
       </c>
       <c r="D12" t="n">
-        <v>0.162515301109128</v>
+        <v>0.132197913746993</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_consistent.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_consistent.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0530353449223402</v>
+        <v>0.0531941391419865</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0318863484974417</v>
+        <v>0.0320326737718645</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0741843413472386</v>
+        <v>0.0743556045121085</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,13 +433,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0575653552523803</v>
+        <v>0.0575653552523801</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0288289010822673</v>
+        <v>0.0288289010822672</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0863018094224933</v>
+        <v>0.086301809422493</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -450,13 +450,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0207598905329339</v>
+        <v>0.0207598905329338</v>
       </c>
       <c r="C4" t="n">
         <v>-0.0461181960169477</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0876379770828154</v>
+        <v>0.0876379770828152</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -467,13 +467,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0917338915877852</v>
+        <v>0.091733891587786</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0297806852548246</v>
+        <v>0.0297806852548251</v>
       </c>
       <c r="D5" t="n">
-        <v>0.153687097920746</v>
+        <v>0.153687097920747</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -484,10 +484,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0838719260554862</v>
+        <v>0.0838719260554863</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00843318620479254</v>
+        <v>0.00843318620479258</v>
       </c>
       <c r="D6" t="n">
         <v>0.15931066590618</v>
@@ -518,10 +518,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0769389816500663</v>
+        <v>0.0769389816500664</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.00563473232866801</v>
+        <v>-0.00563473232866796</v>
       </c>
       <c r="D8" t="n">
         <v>0.159512695628801</v>
@@ -535,13 +535,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0309700140945141</v>
+        <v>0.030970014094514</v>
       </c>
       <c r="C9" t="n">
         <v>-0.0370518756345722</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0989919038236003</v>
+        <v>0.0989919038236001</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -552,7 +552,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.00623267936164852</v>
+        <v>-0.00623267936164858</v>
       </c>
       <c r="C10" t="n">
         <v>-0.115979653813394</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0342572971648338</v>
+        <v>0.0342307930815836</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.000790727879418231</v>
+        <v>-0.000817353665763139</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0693053222090859</v>
+        <v>0.0692789398289303</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0732093090780292</v>
+        <v>0.0740914674696293</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0142207044090649</v>
+        <v>0.015039994457167</v>
       </c>
       <c r="D12" t="n">
-        <v>0.132197913746993</v>
+        <v>0.133142940482092</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_consistent.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_consistent.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0531941391419865</v>
+        <v>0.0531941391419869</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0320326737718645</v>
+        <v>0.0320326737718649</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0743556045121085</v>
+        <v>0.074355604512109</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,13 +433,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0575653552523801</v>
+        <v>0.0575653552523805</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0288289010822672</v>
+        <v>0.0288289010822674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.086301809422493</v>
+        <v>0.0863018094224936</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -450,13 +450,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0207598905329338</v>
+        <v>0.020759890532934</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0461181960169477</v>
+        <v>-0.0461181960169475</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0876379770828152</v>
+        <v>0.0876379770828155</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -467,10 +467,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.091733891587786</v>
+        <v>0.0917338915877857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0297806852548251</v>
+        <v>0.0297806852548248</v>
       </c>
       <c r="D5" t="n">
         <v>0.153687097920747</v>
@@ -484,10 +484,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0838719260554863</v>
+        <v>0.0838719260554862</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00843318620479258</v>
+        <v>0.00843318620479237</v>
       </c>
       <c r="D6" t="n">
         <v>0.15931066590618</v>
@@ -518,10 +518,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0769389816500664</v>
+        <v>0.0769389816500668</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.00563473232866796</v>
+        <v>-0.00563473232866776</v>
       </c>
       <c r="D8" t="n">
         <v>0.159512695628801</v>
@@ -552,7 +552,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.00623267936164858</v>
+        <v>-0.00623267936164857</v>
       </c>
       <c r="C10" t="n">
         <v>-0.115979653813394</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0342307930815836</v>
+        <v>0.0342307930815834</v>
       </c>
       <c r="C11" t="n">
         <v>-0.000817353665763139</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0692789398289303</v>
+        <v>0.0692789398289299</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,10 +586,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0740914674696293</v>
+        <v>0.0740914674696292</v>
       </c>
       <c r="C12" t="n">
-        <v>0.015039994457167</v>
+        <v>0.0150399944571667</v>
       </c>
       <c r="D12" t="n">
         <v>0.133142940482092</v>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_consistent.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_consistent.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0531941391419869</v>
+        <v>0.0531941391419873</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0320326737718649</v>
+        <v>0.0320326737718652</v>
       </c>
       <c r="D2" t="n">
-        <v>0.074355604512109</v>
+        <v>0.0743556045121093</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -439,7 +439,7 @@
         <v>0.0288289010822674</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0863018094224936</v>
+        <v>0.0863018094224937</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -450,10 +450,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.020759890532934</v>
+        <v>0.0207598905329339</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0461181960169475</v>
+        <v>-0.0461181960169476</v>
       </c>
       <c r="D4" t="n">
         <v>0.0876379770828155</v>
@@ -487,7 +487,7 @@
         <v>0.0838719260554862</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00843318620479237</v>
+        <v>0.00843318620479241</v>
       </c>
       <c r="D6" t="n">
         <v>0.15931066590618</v>
@@ -501,13 +501,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0457141051312941</v>
+        <v>0.0457141051312944</v>
       </c>
       <c r="C7" t="n">
         <v>-0.036854115169991</v>
       </c>
       <c r="D7" t="n">
-        <v>0.128282325432579</v>
+        <v>0.12828232543258</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -518,10 +518,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0769389816500668</v>
+        <v>0.0769389816500664</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.00563473232866776</v>
+        <v>-0.00563473232866808</v>
       </c>
       <c r="D8" t="n">
         <v>0.159512695628801</v>
@@ -538,10 +538,10 @@
         <v>0.030970014094514</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0370518756345722</v>
+        <v>-0.0370518756345721</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0989919038236001</v>
+        <v>0.0989919038236002</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -552,7 +552,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.00623267936164857</v>
+        <v>-0.00623267936164855</v>
       </c>
       <c r="C10" t="n">
         <v>-0.115979653813394</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0342307930815834</v>
+        <v>0.0342307930815832</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.000817353665763139</v>
+        <v>-0.000817353665763354</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0692789398289299</v>
+        <v>0.0692789398289297</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -589,7 +589,7 @@
         <v>0.0740914674696292</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0150399944571667</v>
+        <v>0.0150399944571669</v>
       </c>
       <c r="D12" t="n">
         <v>0.133142940482092</v>
